--- a/data/trans_orig/P79$alquiler_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79$alquiler_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2147</v>
+        <v>2203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11706</v>
+        <v>11382</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.008144385903657453</v>
+        <v>0.008144385903657451</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00320180856370961</v>
+        <v>0.003285625605598743</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01745804865680556</v>
+        <v>0.0169741203010959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>9453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5083</v>
+        <v>4907</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16164</v>
+        <v>17037</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01326305123039857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007130787134345374</v>
+        <v>0.006884398131020436</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02267791756692746</v>
+        <v>0.02390307163164074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -783,19 +783,19 @@
         <v>14915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9178</v>
+        <v>8427</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23272</v>
+        <v>22452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01078182447613254</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006634483390520057</v>
+        <v>0.006092010756873966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01682333462043149</v>
+        <v>0.01623093709952093</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6787</v>
+        <v>5837</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00175470113945962</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01012201419207074</v>
+        <v>0.008704969865932218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>3399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1321</v>
+        <v>1338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7505</v>
+        <v>7752</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.004769078896452679</v>
+        <v>0.004769078896452678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001853963263650631</v>
+        <v>0.001877463917184523</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01052878593195853</v>
+        <v>0.01087648551726403</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>4576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1882</v>
+        <v>1996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9962</v>
+        <v>10026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003307886522917007</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0013603042163147</v>
+        <v>0.001442607601773692</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007201385402459055</v>
+        <v>0.007247684384910422</v>
       </c>
     </row>
     <row r="6">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4388</v>
+        <v>4107</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001198205820121226</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006543242759905139</v>
+        <v>0.006125213723248311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3870</v>
+        <v>4557</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001753293724413948</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.005429951811042834</v>
+        <v>0.006393532395028183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -975,16 +975,16 @@
         <v>548</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5602</v>
+        <v>5828</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001484219879733143</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0003958248320761518</v>
+        <v>0.000396329546405858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004049628757014892</v>
+        <v>0.00421338740592963</v>
       </c>
     </row>
     <row r="8">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6958</v>
+        <v>6046</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001771559129721264</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01037684169692425</v>
+        <v>0.009015820202221345</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1069,19 +1069,19 @@
         <v>2233</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6807</v>
+        <v>6497</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003133196392128865</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0008572415024962508</v>
+        <v>0.0008487303700305113</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009550007423930378</v>
+        <v>0.009114737772418417</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1090,19 +1090,19 @@
         <v>3421</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9130</v>
+        <v>8279</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002473155035753982</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006816154777980936</v>
+        <v>0.0006731072649906327</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006600278568750486</v>
+        <v>0.005984766953407396</v>
       </c>
     </row>
     <row r="10">
@@ -1119,19 +1119,19 @@
         <v>8969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3834</v>
+        <v>4182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19626</v>
+        <v>18450</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0133762944412388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005718443758964721</v>
+        <v>0.006237382017915199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02926802501314905</v>
+        <v>0.02751528793184308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1140,19 +1140,19 @@
         <v>7949</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3337</v>
+        <v>3641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16198</v>
+        <v>16477</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01115250547737365</v>
+        <v>0.01115250547737366</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004682381707019976</v>
+        <v>0.005108884654530178</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.022726053394755</v>
+        <v>0.02311720459098164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1161,19 +1161,19 @@
         <v>16918</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9870</v>
+        <v>9530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27791</v>
+        <v>27820</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01223046707883993</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007135071029384276</v>
+        <v>0.006888999731612764</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02009062264688103</v>
+        <v>0.02011097616187948</v>
       </c>
     </row>
     <row r="11">
@@ -1190,19 +1190,19 @@
         <v>609061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>593062</v>
+        <v>592804</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623260</v>
+        <v>622447</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9083065445001192</v>
+        <v>0.9083065445001193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8844458557827821</v>
+        <v>0.8840623200929</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9294814546837254</v>
+        <v>0.9282688655441566</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1092</v>
@@ -1211,19 +1211,19 @@
         <v>630368</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>613801</v>
+        <v>613423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>644292</v>
+        <v>643560</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8844021438246311</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8611577389833058</v>
+        <v>0.8606276371699184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9039367325112702</v>
+        <v>0.9029099880218013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1747</v>
@@ -1232,19 +1232,19 @@
         <v>1239429</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1215909</v>
+        <v>1215754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1260288</v>
+        <v>1258965</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8959895860023518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.878987113939272</v>
+        <v>0.8788750384774754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9110692660248864</v>
+        <v>0.9101127689045933</v>
       </c>
     </row>
     <row r="12">
@@ -1261,19 +1261,19 @@
         <v>27268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18729</v>
+        <v>18580</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40237</v>
+        <v>40613</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04066490582252706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02793040301605754</v>
+        <v>0.027708880979415</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06000583119689637</v>
+        <v>0.06056661361060824</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -1282,19 +1282,19 @@
         <v>23067</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16463</v>
+        <v>16391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33287</v>
+        <v>32185</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03236272704569629</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02309802342003204</v>
+        <v>0.02299653509465524</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04670182746935996</v>
+        <v>0.04515595524955924</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -1303,19 +1303,19 @@
         <v>50335</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37429</v>
+        <v>38511</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64632</v>
+        <v>64873</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03638713317206579</v>
+        <v>0.03638713317206578</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02705751424648318</v>
+        <v>0.02783982264827987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04672267148870061</v>
+        <v>0.0468970032486823</v>
       </c>
     </row>
     <row r="13">
@@ -1332,19 +1332,19 @@
         <v>45918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33555</v>
+        <v>34137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60877</v>
+        <v>61620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06847863182312863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05004190475783047</v>
+        <v>0.05090947136453149</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09078653697210688</v>
+        <v>0.09189478062854115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -1353,19 +1353,19 @@
         <v>56795</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45120</v>
+        <v>45256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70277</v>
+        <v>70550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07968265599475942</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06330279772036954</v>
+        <v>0.0634942399770896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09859743987225461</v>
+        <v>0.09898156852787138</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -1374,19 +1374,19 @@
         <v>102713</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84713</v>
+        <v>86361</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122930</v>
+        <v>122629</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07425160654035161</v>
+        <v>0.07425160654035159</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06123912135218362</v>
+        <v>0.06243054575776787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08886698588910322</v>
+        <v>0.08864908931997284</v>
       </c>
     </row>
     <row r="14">
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6434</v>
+        <v>7267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001795478930232389</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009026318442801825</v>
+        <v>0.01019527348529397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1440,16 +1440,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6467</v>
+        <v>6386</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.000925136746472176</v>
+        <v>0.0009251367464721759</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004675339369253262</v>
+        <v>0.004616649369010936</v>
       </c>
     </row>
     <row r="15">
@@ -1470,19 +1470,19 @@
         <v>13861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6435</v>
+        <v>6767</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24393</v>
+        <v>24885</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0135819601386496</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006305345055599541</v>
+        <v>0.006630847508312647</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02390156939861026</v>
+        <v>0.02438304419314331</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -1491,19 +1491,19 @@
         <v>24341</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15413</v>
+        <v>16177</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38827</v>
+        <v>37945</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02358582523716185</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01493453278723069</v>
+        <v>0.01567485389065324</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03762249921887866</v>
+        <v>0.03676848652316569</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>37</v>
@@ -1512,19 +1512,19 @@
         <v>38202</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27017</v>
+        <v>26862</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>55425</v>
+        <v>55289</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01861175548567167</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01316262313152962</v>
+        <v>0.01308679719188714</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02700259664608707</v>
+        <v>0.02693636708508078</v>
       </c>
     </row>
     <row r="16">
@@ -1541,19 +1541,19 @@
         <v>5938</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2093</v>
+        <v>2167</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13741</v>
+        <v>12523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005817936406786138</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00205043181803899</v>
+        <v>0.002123079994658744</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01346354385143633</v>
+        <v>0.01227010553578977</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1562,19 +1562,19 @@
         <v>3236</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8193</v>
+        <v>8119</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003135421276458292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.000750239424300958</v>
+        <v>0.0007559603989102359</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007939167315387383</v>
+        <v>0.007867054155114597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1583,19 +1583,19 @@
         <v>9173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4265</v>
+        <v>4668</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17336</v>
+        <v>16584</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.004469207491714515</v>
+        <v>0.004469207491714516</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002078041374726719</v>
+        <v>0.002274142530077546</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008445856928356456</v>
+        <v>0.008079748973921518</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>6613</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1054</v>
+        <v>1748</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18305</v>
+        <v>16840</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.006479200121468125</v>
+        <v>0.006479200121468124</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00103233832352775</v>
+        <v>0.001712748779225105</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01793587281047456</v>
+        <v>0.01650093764278719</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1680,19 +1680,19 @@
         <v>4458</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2085</v>
+        <v>2076</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9022</v>
+        <v>9669</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.004319479050960363</v>
+        <v>0.004319479050960362</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002020305049966698</v>
+        <v>0.00201115114861678</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.008742366514378139</v>
+        <v>0.009368694581843688</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -1701,19 +1701,19 @@
         <v>11070</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5174</v>
+        <v>5127</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22947</v>
+        <v>23924</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.005393324324030495</v>
+        <v>0.005393324324030496</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002520824595950102</v>
+        <v>0.00249759842459138</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01117938200309308</v>
+        <v>0.01165560054094481</v>
       </c>
     </row>
     <row r="19">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5474</v>
+        <v>5204</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001553596727774493</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005304596056874285</v>
+        <v>0.005043022929855622</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5468</v>
+        <v>5621</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0007811254465707436</v>
+        <v>0.0007811254465707437</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002663741074532921</v>
+        <v>0.00273827791372698</v>
       </c>
     </row>
     <row r="20">
@@ -1793,19 +1793,19 @@
         <v>7441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3240</v>
+        <v>3374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14899</v>
+        <v>15107</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.007291157839234885</v>
+        <v>0.007291157839234884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003174603705551198</v>
+        <v>0.003305867116092899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01459863210327449</v>
+        <v>0.01480221307766008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1814,19 +1814,19 @@
         <v>7908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3783</v>
+        <v>3933</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14146</v>
+        <v>14842</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.00766293282171777</v>
+        <v>0.007662932821717771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00366606252610687</v>
+        <v>0.003810817718791683</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01370689443761822</v>
+        <v>0.01438192174317335</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1835,19 +1835,19 @@
         <v>15349</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9274</v>
+        <v>9229</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24764</v>
+        <v>24775</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.007478080799372534</v>
+        <v>0.007478080799372535</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004518396059838664</v>
+        <v>0.004496245285953437</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01206475861653191</v>
+        <v>0.0120701210358224</v>
       </c>
     </row>
     <row r="21">
@@ -1864,19 +1864,19 @@
         <v>9897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4759</v>
+        <v>5141</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17462</v>
+        <v>17627</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.009697758155670987</v>
+        <v>0.009697758155670986</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004662755653241849</v>
+        <v>0.00503738839112519</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01711029236746971</v>
+        <v>0.01727115136335005</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1885,19 +1885,19 @@
         <v>15044</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9015</v>
+        <v>9540</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23059</v>
+        <v>23996</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01457780808768913</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008735276042334171</v>
+        <v>0.009243755880590291</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02234365153354058</v>
+        <v>0.02325145275397279</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -1906,19 +1906,19 @@
         <v>24942</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17204</v>
+        <v>16578</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34700</v>
+        <v>35435</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01215137505269918</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008381742973423773</v>
+        <v>0.008076891958907085</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01690548918670735</v>
+        <v>0.01726343282339698</v>
       </c>
     </row>
     <row r="22">
@@ -1935,19 +1935,19 @@
         <v>886131</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>858917</v>
+        <v>861954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>909841</v>
+        <v>908129</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.868266738552712</v>
+        <v>0.8682667385527119</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8416012512056426</v>
+        <v>0.8445767130814429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8914982305572422</v>
+        <v>0.8898205820805783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1282</v>
@@ -1956,19 +1956,19 @@
         <v>886162</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>863539</v>
+        <v>864626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>905477</v>
+        <v>904912</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8586770636585919</v>
+        <v>0.858677063658592</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8367563536000234</v>
+        <v>0.8378091048004602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8773934807315031</v>
+        <v>0.8768457303424684</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2103</v>
@@ -1977,19 +1977,19 @@
         <v>1772293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1737108</v>
+        <v>1740411</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1802711</v>
+        <v>1804908</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8634451919117969</v>
+        <v>0.863445191911797</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8463033511795824</v>
+        <v>0.8479124565822641</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8782647807136131</v>
+        <v>0.8793350784758764</v>
       </c>
     </row>
     <row r="23">
@@ -2006,19 +2006,19 @@
         <v>37167</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25952</v>
+        <v>26014</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52767</v>
+        <v>52656</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03641760145327404</v>
+        <v>0.03641760145327403</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02542846473148962</v>
+        <v>0.02548994478973225</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0517033985829589</v>
+        <v>0.05159444852593541</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>66</v>
@@ -2027,19 +2027,19 @@
         <v>49112</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>37748</v>
+        <v>38453</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>62823</v>
+        <v>63109</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04758866753607987</v>
+        <v>0.04758866753607988</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03657725872740394</v>
+        <v>0.03726026674591377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06087437692522841</v>
+        <v>0.06115145021952261</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -2048,19 +2048,19 @@
         <v>86279</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>69913</v>
+        <v>68494</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>106710</v>
+        <v>105291</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04203424818443886</v>
+        <v>0.04203424818443888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03406103253317796</v>
+        <v>0.03336950283960432</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05198817265365371</v>
+        <v>0.05129684494049622</v>
       </c>
     </row>
     <row r="24">
@@ -2077,19 +2077,19 @@
         <v>94661</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77586</v>
+        <v>77001</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>116272</v>
+        <v>116051</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0927522926330285</v>
+        <v>0.09275229263302849</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07602218477699642</v>
+        <v>0.07544891200792</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1139280318826911</v>
+        <v>0.113711349029843</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -2098,19 +2098,19 @@
         <v>100648</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>83717</v>
+        <v>84855</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>119965</v>
+        <v>119076</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09752589762628704</v>
+        <v>0.09752589762628705</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08112010808325483</v>
+        <v>0.08222273613950859</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1162445320919105</v>
+        <v>0.1153829488887441</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>222</v>
@@ -2119,19 +2119,19 @@
         <v>195308</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>170522</v>
+        <v>169552</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>225102</v>
+        <v>223746</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09515239058988559</v>
+        <v>0.0951523905898856</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08307688817960211</v>
+        <v>0.08260417460421721</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.109667568039321</v>
+        <v>0.109007202766562</v>
       </c>
     </row>
     <row r="25">
@@ -2148,19 +2148,19 @@
         <v>6741</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18938</v>
+        <v>18094</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0066047935614086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001425852258533065</v>
+        <v>0.001413603550871963</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01855659104882232</v>
+        <v>0.01772961223784477</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2169,19 +2169,19 @@
         <v>2003</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5935</v>
+        <v>5350</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.001940757432068442</v>
+        <v>0.001940757432068443</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.000612289634630889</v>
+        <v>0.0006169524052281938</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.005751172520940208</v>
+        <v>0.00518401025690432</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2190,19 +2190,19 @@
         <v>8744</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3401</v>
+        <v>3613</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20837</v>
+        <v>21562</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004259785208068577</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001656707593717961</v>
+        <v>0.001760314524418681</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01015164615098854</v>
+        <v>0.01050491814273489</v>
       </c>
     </row>
     <row r="26">
@@ -2223,19 +2223,19 @@
         <v>11504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5110</v>
+        <v>5913</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20713</v>
+        <v>21073</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01496335897774962</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006646323503463759</v>
+        <v>0.007691577433973822</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02694192139462799</v>
+        <v>0.0274099786186317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2244,19 +2244,19 @@
         <v>13647</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6641</v>
+        <v>6410</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27147</v>
+        <v>26844</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0175845234469212</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008557483931862163</v>
+        <v>0.008258659423407384</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03497874799999966</v>
+        <v>0.03458866973367683</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2265,19 +2265,19 @@
         <v>25151</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15264</v>
+        <v>15098</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38335</v>
+        <v>40956</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01628013271149832</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009879998802704718</v>
+        <v>0.009772577679230579</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02481343762374723</v>
+        <v>0.02651036051813121</v>
       </c>
     </row>
     <row r="27">
@@ -2294,19 +2294,19 @@
         <v>5001</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1327</v>
+        <v>1202</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12197</v>
+        <v>11585</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.006505488792510894</v>
+        <v>0.006505488792510896</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.001726607632310664</v>
+        <v>0.001563388025341156</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01586447053756651</v>
+        <v>0.01506863710397856</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3942</v>
+        <v>3579</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0009127759599610149</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.005079160333069096</v>
+        <v>0.004611556833177351</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2336,19 +2336,19 @@
         <v>5710</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1981</v>
+        <v>1825</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13292</v>
+        <v>12314</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.003695921729888353</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.001282368938498458</v>
+        <v>0.001181409579201734</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.008603794816519931</v>
+        <v>0.007970379905841225</v>
       </c>
     </row>
     <row r="28">
@@ -2412,19 +2412,19 @@
         <v>7418</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1617</v>
+        <v>1636</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20207</v>
+        <v>21587</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00964884837379041</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002103755636410873</v>
+        <v>0.002128456400772946</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02628366763712313</v>
+        <v>0.0280784219518534</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2433,19 +2433,19 @@
         <v>7357</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3322</v>
+        <v>3507</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14565</v>
+        <v>15253</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009478998341621791</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004279882278763459</v>
+        <v>0.004518580370844773</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01876680355592174</v>
+        <v>0.01965368250730628</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2454,19 +2454,19 @@
         <v>14775</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7294</v>
+        <v>7954</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27753</v>
+        <v>29230</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009563522151927387</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00472100041801871</v>
+        <v>0.005148204947437303</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01796398468395901</v>
+        <v>0.01892013769214589</v>
       </c>
     </row>
     <row r="30">
@@ -2496,19 +2496,19 @@
         <v>2480</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7149</v>
+        <v>7354</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003195246151151126</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0009442801148807331</v>
+        <v>0.000946201302645025</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.009211690502900783</v>
+        <v>0.009475094956825556</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2517,19 +2517,19 @@
         <v>2480</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7145</v>
+        <v>7062</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001605170623279196</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.000476443489429638</v>
+        <v>0.0004728795956796515</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004624896026261523</v>
+        <v>0.004571249446183912</v>
       </c>
     </row>
     <row r="31">
@@ -2546,19 +2546,19 @@
         <v>7222</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2869</v>
+        <v>3016</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16434</v>
+        <v>16204</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.009393495904323007</v>
+        <v>0.009393495904323005</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003731676412510274</v>
+        <v>0.003922334409733114</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02137613583927517</v>
+        <v>0.02107742868811472</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2567,19 +2567,19 @@
         <v>5441</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2345</v>
+        <v>2305</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11160</v>
+        <v>10467</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.007011178748421752</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003022033380952236</v>
+        <v>0.002969696681400183</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01437984674837576</v>
+        <v>0.01348702334085732</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -2588,19 +2588,19 @@
         <v>12663</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7239</v>
+        <v>6947</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21809</v>
+        <v>21385</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.008196710012691752</v>
+        <v>0.00819671001269175</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004685988954461956</v>
+        <v>0.004496743269133058</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01411637451581718</v>
+        <v>0.01384205045230045</v>
       </c>
     </row>
     <row r="32">
@@ -2617,19 +2617,19 @@
         <v>10412</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5266</v>
+        <v>4748</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18643</v>
+        <v>18599</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01354352866302204</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006849521777184405</v>
+        <v>0.006175507824923585</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0242494696518284</v>
+        <v>0.02419193066369715</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -2638,19 +2638,19 @@
         <v>12813</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7608</v>
+        <v>7701</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20119</v>
+        <v>19304</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01650922843539572</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009803317487594403</v>
+        <v>0.009922018071217616</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02592330773326288</v>
+        <v>0.02487292036900406</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>27</v>
@@ -2659,19 +2659,19 @@
         <v>23225</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15696</v>
+        <v>15278</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33982</v>
+        <v>34402</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01503338388133285</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01015992244711672</v>
+        <v>0.00988917825458285</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02199600956558419</v>
+        <v>0.02226784462988495</v>
       </c>
     </row>
     <row r="33">
@@ -2688,19 +2688,19 @@
         <v>666940</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>641809</v>
+        <v>642058</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>687766</v>
+        <v>686542</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8675024938265293</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8348144092733181</v>
+        <v>0.8351381015618082</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8945912947672513</v>
+        <v>0.8929990452676434</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>898</v>
@@ -2709,19 +2709,19 @@
         <v>687694</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>669052</v>
+        <v>666605</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>703418</v>
+        <v>702880</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8860853357706803</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8620643339853754</v>
+        <v>0.8589125895844664</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9063446795130561</v>
+        <v>0.9056520740455449</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1462</v>
@@ -2730,19 +2730,19 @@
         <v>1354635</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1321901</v>
+        <v>1323106</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1378557</v>
+        <v>1382781</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8768378096597229</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8556499193365202</v>
+        <v>0.8564298699921872</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8923221589625717</v>
+        <v>0.8950568266618113</v>
       </c>
     </row>
     <row r="34">
@@ -2759,19 +2759,19 @@
         <v>38527</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>26117</v>
+        <v>25328</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>56789</v>
+        <v>58491</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05011267822831387</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03397125072266636</v>
+        <v>0.03294480224414272</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07386643808835133</v>
+        <v>0.0760799460834619</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -2780,19 +2780,19 @@
         <v>25723</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16745</v>
+        <v>16423</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>39188</v>
+        <v>38579</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03314357094872328</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02157587986297362</v>
+        <v>0.02116073450509352</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05049323254619635</v>
+        <v>0.04970857679159596</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>56</v>
@@ -2801,19 +2801,19 @@
         <v>64250</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>49257</v>
+        <v>48458</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>88561</v>
+        <v>86290</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.041588041558723</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03188374904523635</v>
+        <v>0.03136622870485517</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05732414210630705</v>
+        <v>0.05585460626002309</v>
       </c>
     </row>
     <row r="35">
@@ -2830,19 +2830,19 @@
         <v>48248</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>35482</v>
+        <v>36726</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>65497</v>
+        <v>65771</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06275659143954511</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04615169954327974</v>
+        <v>0.04777039242412141</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08519334785027233</v>
+        <v>0.08554999356809857</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>62</v>
@@ -2851,19 +2851,19 @@
         <v>53408</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>40244</v>
+        <v>41437</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>67778</v>
+        <v>70678</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06881581061458415</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05185375750195356</v>
+        <v>0.05339067216573602</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08733094857813994</v>
+        <v>0.09106774183646249</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>108</v>
@@ -2872,19 +2872,19 @@
         <v>101656</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>83424</v>
+        <v>81711</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>123323</v>
+        <v>123722</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06580051361633225</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05399924886245141</v>
+        <v>0.05289020770655739</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07982515442577313</v>
+        <v>0.08008340837067535</v>
       </c>
     </row>
     <row r="36">
@@ -2901,19 +2901,19 @@
         <v>8884</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2862</v>
+        <v>2906</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21967</v>
+        <v>22268</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0115553705617133</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.00372310133110864</v>
+        <v>0.003779407678717607</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02857345369322345</v>
+        <v>0.02896430902886686</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -2922,19 +2922,19 @@
         <v>5822</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2825</v>
+        <v>2735</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11195</v>
+        <v>10737</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007501741560163732</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003639909063030643</v>
+        <v>0.003524138832553623</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01442504191683154</v>
+        <v>0.01383512119039943</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -2943,19 +2943,19 @@
         <v>14706</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>8207</v>
+        <v>8067</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29095</v>
+        <v>29049</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.009518980911853051</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005312237882181228</v>
+        <v>0.005221604745262136</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01883284431780937</v>
+        <v>0.01880280430044357</v>
       </c>
     </row>
     <row r="37">
@@ -2976,19 +2976,19 @@
         <v>34571</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23630</v>
+        <v>22581</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51628</v>
+        <v>48741</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03597812858768714</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02459122357920707</v>
+        <v>0.02349981848597878</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05372931225678768</v>
+        <v>0.05072412095061057</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>42</v>
@@ -2997,19 +2997,19 @@
         <v>36713</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>26087</v>
+        <v>26042</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>49639</v>
+        <v>49923</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03405113241682135</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02419509481569587</v>
+        <v>0.02415365976640609</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04603996026714519</v>
+        <v>0.04630280358815401</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>70</v>
@@ -3018,19 +3018,19 @@
         <v>71284</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>55703</v>
+        <v>55586</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>92887</v>
+        <v>88493</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03495921111111324</v>
+        <v>0.03495921111111323</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02731796292807638</v>
+        <v>0.0272603511245216</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04555341211596926</v>
+        <v>0.04339874744016537</v>
       </c>
     </row>
     <row r="38">
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6118</v>
+        <v>8148</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.00115558648386883</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.006367040783050839</v>
+        <v>0.008479560494192632</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>4256</v>
+        <v>3458</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0006443518189778967</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.003947806510991182</v>
+        <v>0.003207329936353426</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -3092,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7239</v>
+        <v>6777</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.0008852663127323547</v>
+        <v>0.0008852663127323546</v>
       </c>
       <c r="V38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.003550000789495027</v>
+        <v>0.00332379699941097</v>
       </c>
     </row>
     <row r="39">
@@ -3131,19 +3131,19 @@
         <v>3439</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>618</v>
+        <v>801</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10818</v>
+        <v>11139</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.003189684155454681</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0005735182539662991</v>
+        <v>0.0007427092658886055</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0100337726127079</v>
+        <v>0.01033132930998409</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>3439</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>12069</v>
+        <v>12499</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.001686575707767708</v>
+        <v>0.001686575707767707</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0003006904344317368</v>
+        <v>0.0003020148102711419</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.005918957319187032</v>
+        <v>0.006129918191899407</v>
       </c>
     </row>
     <row r="40">
@@ -3181,19 +3181,19 @@
         <v>9537</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4252</v>
+        <v>4874</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17210</v>
+        <v>18243</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.009925214719809243</v>
+        <v>0.009925214719809242</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004425471548014979</v>
+        <v>0.00507279116281654</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01791001660006968</v>
+        <v>0.01898534791790231</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -3202,19 +3202,19 @@
         <v>4669</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1960</v>
+        <v>1999</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9823</v>
+        <v>9858</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004330884565650621</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001818000297473855</v>
+        <v>0.001853726496945447</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00911036995450229</v>
+        <v>0.009142811781911703</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>16</v>
@@ -3223,19 +3223,19 @@
         <v>14207</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>7976</v>
+        <v>8592</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>23577</v>
+        <v>23453</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.006967159665016103</v>
+        <v>0.006967159665016102</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003911544987225546</v>
+        <v>0.004213834229615243</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01156244980511891</v>
+        <v>0.01150164523348016</v>
       </c>
     </row>
     <row r="41">
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7289</v>
+        <v>5364</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001175582072383933</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.007585552970402513</v>
+        <v>0.005582097618366443</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4406</v>
+        <v>4033</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0007511721028228362</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.004086240767520443</v>
+        <v>0.003741021300690071</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -3297,16 +3297,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6775</v>
+        <v>6296</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.0009511712812489899</v>
+        <v>0.0009511712812489898</v>
       </c>
       <c r="V41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.003322682178762798</v>
+        <v>0.00308748200157998</v>
       </c>
     </row>
     <row r="42">
@@ -3323,19 +3323,19 @@
         <v>18891</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11556</v>
+        <v>11344</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>31232</v>
+        <v>30019</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0196595635871415</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01202642086915269</v>
+        <v>0.01180577107927947</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03250345677095642</v>
+        <v>0.03124048737402495</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>13</v>
@@ -3344,19 +3344,19 @@
         <v>9916</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5504</v>
+        <v>5713</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>17354</v>
+        <v>16949</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.009197255979929684</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.005105044300946968</v>
+        <v>0.00529848298714432</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01609569837201724</v>
+        <v>0.01571959141857401</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>30</v>
@@ -3365,19 +3365,19 @@
         <v>28807</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>19309</v>
+        <v>19409</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>39633</v>
+        <v>40569</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.01412751934779536</v>
+        <v>0.01412751934779535</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.009469655786460357</v>
+        <v>0.009518318090302636</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01943681019187271</v>
+        <v>0.01989591153384555</v>
       </c>
     </row>
     <row r="43">
@@ -3394,19 +3394,19 @@
         <v>17629</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10672</v>
+        <v>10695</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>29250</v>
+        <v>28895</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.01834618351176007</v>
+        <v>0.01834618351176006</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01110663226919439</v>
+        <v>0.01113043050371306</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03043994306105434</v>
+        <v>0.03007108863425043</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -3415,19 +3415,19 @@
         <v>8699</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>4842</v>
+        <v>4937</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14342</v>
+        <v>14080</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.008068130940301227</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.00449079411711514</v>
+        <v>0.004578753788121205</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01330207764867705</v>
+        <v>0.01305887892774469</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>32</v>
@@ -3436,19 +3436,19 @@
         <v>26328</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>17645</v>
+        <v>17503</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>38914</v>
+        <v>37384</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0129115658677097</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.008653401437504461</v>
+        <v>0.008583924445167328</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01908397907349512</v>
+        <v>0.01833363583320039</v>
       </c>
     </row>
     <row r="44">
@@ -3465,19 +3465,19 @@
         <v>777499</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>750122</v>
+        <v>750562</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>803410</v>
+        <v>803431</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.809141338616389</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7806502475264315</v>
+        <v>0.7811078921448835</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8361069762596085</v>
+        <v>0.8361287085971628</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1251</v>
@@ -3486,19 +3486,19 @@
         <v>875993</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>849698</v>
+        <v>852523</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>896978</v>
+        <v>899409</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.8124743145670774</v>
+        <v>0.8124743145670773</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7880858039605009</v>
+        <v>0.7907065410372324</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.831938353822661</v>
+        <v>0.8341929684083467</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2058</v>
@@ -3507,19 +3507,19 @@
         <v>1653492</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1615259</v>
+        <v>1619457</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1689087</v>
+        <v>1688688</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.8109036812180513</v>
+        <v>0.8109036812180512</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7921537484042696</v>
+        <v>0.7942122726281666</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8283604275206476</v>
+        <v>0.8281644377756497</v>
       </c>
     </row>
     <row r="45">
@@ -3536,19 +3536,19 @@
         <v>54646</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>40629</v>
+        <v>41273</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>74002</v>
+        <v>73142</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05686952929514802</v>
+        <v>0.05686952929514801</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04228284489529908</v>
+        <v>0.04295294035820673</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07701323950644999</v>
+        <v>0.07611872411996873</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>66</v>
@@ -3557,19 +3557,19 @@
         <v>47049</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>36826</v>
+        <v>37035</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>60246</v>
+        <v>59695</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04363760250960484</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03415601171016462</v>
+        <v>0.03434981995759404</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.05587793049724404</v>
+        <v>0.05536695536283792</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>119</v>
@@ -3578,19 +3578,19 @@
         <v>101695</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>83607</v>
+        <v>83733</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>121088</v>
+        <v>124320</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.04987302268326475</v>
+        <v>0.04987302268326474</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.04100245065925411</v>
+        <v>0.0410642386277243</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05938394043826565</v>
+        <v>0.06096910353400174</v>
       </c>
     </row>
     <row r="46">
@@ -3607,19 +3607,19 @@
         <v>104863</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>84321</v>
+        <v>85904</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>124854</v>
+        <v>127800</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1091302244765363</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08775276016067686</v>
+        <v>0.08940055386328423</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1299353346291448</v>
+        <v>0.1330013214806791</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>179</v>
@@ -3628,19 +3628,19 @@
         <v>142902</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>123023</v>
+        <v>123046</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>164301</v>
+        <v>165960</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1325403791414499</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1141025313972885</v>
+        <v>0.1141243170134027</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1523878132326388</v>
+        <v>0.1539264318908081</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>286</v>
@@ -3649,19 +3649,19 @@
         <v>247765</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>219156</v>
+        <v>218141</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>281667</v>
+        <v>278575</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.121508565481055</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1074783054480907</v>
+        <v>0.1069806072275923</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1381348751905099</v>
+        <v>0.1366185166872726</v>
       </c>
     </row>
     <row r="47">
@@ -3678,19 +3678,19 @@
         <v>3121</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>890</v>
+        <v>593</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7589</v>
+        <v>8018</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.003247574593377364</v>
+        <v>0.003247574593377363</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0009264387362309649</v>
+        <v>0.0006167609542404817</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.007898200234871151</v>
+        <v>0.008344334318607798</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -3699,19 +3699,19 @@
         <v>3048</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>715</v>
+        <v>810</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9845</v>
+        <v>9986</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.002827029132797912</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0006632134973603806</v>
+        <v>0.0007515718958604515</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.009131348317198664</v>
+        <v>0.009262239354906759</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>7</v>
@@ -3720,19 +3720,19 @@
         <v>6169</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2419</v>
+        <v>2380</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>12859</v>
+        <v>12843</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.003025207197968529</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001186297833054159</v>
+        <v>0.001166973688161061</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.006306201899296602</v>
+        <v>0.006298300345407569</v>
       </c>
     </row>
     <row r="48">
@@ -3753,19 +3753,19 @@
         <v>65398</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>49862</v>
+        <v>49346</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>87141</v>
+        <v>85513</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01911754161714951</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01457590103365021</v>
+        <v>0.01442526973404322</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02547367789169946</v>
+        <v>0.02499793997470616</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>92</v>
@@ -3774,19 +3774,19 @@
         <v>84155</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>65764</v>
+        <v>67093</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>104830</v>
+        <v>106667</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02338248475789028</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01827250849051532</v>
+        <v>0.01864190778531208</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.0291271770989474</v>
+        <v>0.02963746321991267</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>147</v>
@@ -3795,19 +3795,19 @@
         <v>149552</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>123575</v>
+        <v>127926</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>177688</v>
+        <v>178457</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02130415630178426</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01760365725130402</v>
+        <v>0.01822347946997742</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02531208114483181</v>
+        <v>0.02542161993336447</v>
       </c>
     </row>
     <row r="49">
@@ -3824,19 +3824,19 @@
         <v>13226</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>7130</v>
+        <v>7037</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>23422</v>
+        <v>22537</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.003866352867666983</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.002084188461106148</v>
+        <v>0.002057085500931483</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.006846825042746454</v>
+        <v>0.006588243724716692</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>11</v>
@@ -3845,19 +3845,19 @@
         <v>8038</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>4299</v>
+        <v>4158</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>14185</v>
+        <v>13868</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.002233402369124158</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.001194431393921817</v>
+        <v>0.001155389794348578</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.003941379044820432</v>
+        <v>0.003853195969573456</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>22</v>
@@ -3866,19 +3866,19 @@
         <v>21264</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>13728</v>
+        <v>13642</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>32821</v>
+        <v>33008</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.003029147441576541</v>
+        <v>0.00302914744157654</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001955659370665017</v>
+        <v>0.001943301897268884</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.004675488615926822</v>
+        <v>0.004702060773577032</v>
       </c>
     </row>
     <row r="50">
@@ -3908,19 +3908,19 @@
         <v>3439</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>12230</v>
+        <v>12389</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.0009555433543821508</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0001712386101113944</v>
+        <v>0.0001705777113500817</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.003398214629004933</v>
+        <v>0.003442193222501711</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3</v>
@@ -3929,19 +3929,19 @@
         <v>3439</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>11914</v>
+        <v>10010</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.000489902224144132</v>
+        <v>0.0004899022241441319</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>8.719707776478032e-05</v>
+        <v>8.77338909300696e-05</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.001697223171638213</v>
+        <v>0.001425892811671259</v>
       </c>
     </row>
     <row r="51">
@@ -3958,19 +3958,19 @@
         <v>24371</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>13909</v>
+        <v>13698</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>40518</v>
+        <v>39626</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.007124351834016576</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.004065939375628437</v>
+        <v>0.004004426344114571</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0118445205605175</v>
+        <v>0.01158365135239245</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>24</v>
@@ -3979,19 +3979,19 @@
         <v>17734</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>11446</v>
+        <v>11743</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>26832</v>
+        <v>27586</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.004927289004753822</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.003180237391423969</v>
+        <v>0.003262690787624728</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.007455171119443472</v>
+        <v>0.007664771319896735</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>42</v>
@@ -4000,19 +4000,19 @@
         <v>42105</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>31320</v>
+        <v>31004</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>63114</v>
+        <v>61115</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.005997928881354021</v>
+        <v>0.005997928881354023</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.00446156238639566</v>
+        <v>0.004416577831984368</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.008990811360346147</v>
+        <v>0.008705967286814985</v>
       </c>
     </row>
     <row r="52">
@@ -4032,16 +4032,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>7191</v>
+        <v>6043</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.0003302160826526657</v>
+        <v>0.0003302160826526656</v>
       </c>
       <c r="H52" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.002102077747275696</v>
+        <v>0.001766618969194148</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>6</v>
@@ -4050,19 +4050,19 @@
         <v>4893</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>10984</v>
+        <v>10414</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.001359542427719608</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0004893251472840452</v>
+        <v>0.0004883747717546762</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.003051778944891751</v>
+        <v>0.002893500804455585</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>7</v>
@@ -4071,19 +4071,19 @@
         <v>6023</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2733</v>
+        <v>2557</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>12994</v>
+        <v>11534</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.0008579464713428821</v>
+        <v>0.000857946471342882</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0003893616218844799</v>
+        <v>0.0003642465105871617</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.001850978534502996</v>
+        <v>0.001643018282216821</v>
       </c>
     </row>
     <row r="53">
@@ -4100,19 +4100,19 @@
         <v>34742</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>24244</v>
+        <v>23005</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>48773</v>
+        <v>48279</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01015593041174568</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.007087312751458907</v>
+        <v>0.006724891717042139</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01425767175296438</v>
+        <v>0.01411315831301202</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>33</v>
@@ -4121,19 +4121,19 @@
         <v>25499</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>17860</v>
+        <v>18299</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>35862</v>
+        <v>35461</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.007084954133204566</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.004962320552897461</v>
+        <v>0.005084450588077853</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.009964351232463446</v>
+        <v>0.009852804371628722</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>64</v>
@@ -4142,19 +4142,19 @@
         <v>60241</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>47197</v>
+        <v>46895</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>76304</v>
+        <v>77583</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.008581456472649584</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.006723313001067988</v>
+        <v>0.006680283695945554</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01086969514719655</v>
+        <v>0.01105191174853041</v>
       </c>
     </row>
     <row r="54">
@@ -4171,19 +4171,19 @@
         <v>46908</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>35221</v>
+        <v>32448</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>61914</v>
+        <v>62577</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01371243767521485</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01029605918281001</v>
+        <v>0.009485435034111383</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01809907695909347</v>
+        <v>0.01829296638874374</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>60</v>
@@ -4192,19 +4192,19 @@
         <v>44505</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>33829</v>
+        <v>34651</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>56969</v>
+        <v>57490</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01236582600134845</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.009399396646633739</v>
+        <v>0.00962772815988047</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01582886406084231</v>
+        <v>0.01597354638539947</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>106</v>
@@ -4213,19 +4213,19 @@
         <v>91413</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>73945</v>
+        <v>74594</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>112445</v>
+        <v>110657</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.0130220367100884</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01053367296108176</v>
+        <v>0.01062617340533114</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01601811476967736</v>
+        <v>0.01576333169350707</v>
       </c>
     </row>
     <row r="55">
@@ -4242,19 +4242,19 @@
         <v>2939631</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>2891002</v>
+        <v>2894961</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>2983022</v>
+        <v>2984639</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.8593354673951267</v>
+        <v>0.8593354673951266</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.8451197512888374</v>
+        <v>0.8462770484932072</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.8720197373268259</v>
+        <v>0.872492599537824</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>4523</v>
@@ -4263,19 +4263,19 @@
         <v>3080217</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>3040991</v>
+        <v>3039189</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>3121203</v>
+        <v>3116337</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.8558409473021453</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.8449420801510801</v>
+        <v>0.844441300176948</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.8672288956892311</v>
+        <v>0.8658769951481952</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>7370</v>
@@ -4284,19 +4284,19 @@
         <v>6019848</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>5958263</v>
+        <v>5961091</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>6074929</v>
+        <v>6074484</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.8575438446937425</v>
+        <v>0.8575438446937423</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.8487709552366904</v>
+        <v>0.849173706738533</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.8653903025864709</v>
+        <v>0.8653268516550829</v>
       </c>
     </row>
     <row r="56">
@@ -4313,19 +4313,19 @@
         <v>157607</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>132713</v>
+        <v>131453</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>189081</v>
+        <v>187554</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.0460728870369437</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03879561785568712</v>
+        <v>0.03842748082249369</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.05527353771560223</v>
+        <v>0.05482717678913378</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>194</v>
@@ -4334,19 +4334,19 @@
         <v>144951</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>123942</v>
+        <v>124979</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>169166</v>
+        <v>167566</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.04027471159105582</v>
+        <v>0.04027471159105583</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.03443744983214728</v>
+        <v>0.03472556210716971</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.0470028741907164</v>
+        <v>0.04655824207719882</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>334</v>
@@ -4355,19 +4355,19 @@
         <v>302558</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>272434</v>
+        <v>263086</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>341162</v>
+        <v>338392</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.04310019193745756</v>
+        <v>0.04310019193745755</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0388090069671254</v>
+        <v>0.03747732669346725</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.0485995264336315</v>
+        <v>0.04820493794704726</v>
       </c>
     </row>
     <row r="57">
@@ -4384,19 +4384,19 @@
         <v>293689</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>259175</v>
+        <v>258219</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>328627</v>
+        <v>329367</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.08585336246500291</v>
+        <v>0.0858533624650029</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.07576401539497515</v>
+        <v>0.07548441360341041</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0960666752882726</v>
+        <v>0.09628310566691653</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>454</v>
@@ -4405,19 +4405,19 @@
         <v>353753</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>320576</v>
+        <v>323031</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>385607</v>
+        <v>391722</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.09829051674536146</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.08907230973986807</v>
+        <v>0.08975434944558659</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1071413780779731</v>
+        <v>0.1088401850974085</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>740</v>
@@ -4426,19 +4426,19 @@
         <v>647442</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>602915</v>
+        <v>601077</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>698961</v>
+        <v>698417</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.09222982829047145</v>
+        <v>0.09222982829047144</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.08588693945878557</v>
+        <v>0.08562504356242095</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.09956896238115899</v>
+        <v>0.09949136829577607</v>
       </c>
     </row>
     <row r="58">
@@ -4455,19 +4455,19 @@
         <v>18745</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>9967</v>
+        <v>9862</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>36833</v>
+        <v>34317</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.005479706770409412</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.002913491716210268</v>
+        <v>0.002882793816324616</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.01076721591348537</v>
+        <v>0.01003178369365499</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>15</v>
@@ -4476,19 +4476,19 @@
         <v>12153</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>6974</v>
+        <v>6673</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>18948</v>
+        <v>20139</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.003376665913822959</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.001937698029030656</v>
+        <v>0.00185423195746135</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.005264734749277471</v>
+        <v>0.00559558751538538</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>28</v>
@@ -4497,19 +4497,19 @@
         <v>30898</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>20089</v>
+        <v>20789</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>47376</v>
+        <v>48826</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.004401488405556819</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.002861798113651036</v>
+        <v>0.002961418918141244</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.006748796339229289</v>
+        <v>0.00695544207790413</v>
       </c>
     </row>
     <row r="59">
